--- a/Hardware/CostLog.xlsx
+++ b/Hardware/CostLog.xlsx
@@ -9,14 +9,37 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgaFmqwOmA4Lb9YBN6WjTqqDrfa6A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mibpidVjwsYMvCKsU/KJMUMXEU1gQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C30">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAANg99jIM
+Nicolas Sicard    (2021-07-23 16:22:06)
+replace with cheap yoga mat</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjLe1lM0c5jG5ZOi17z6k7+eCmSdw=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Total</t>
   </si>
@@ -36,7 +59,7 @@
     <t>lot price</t>
   </si>
   <si>
-    <t>lot size</t>
+    <t>lot size or meters</t>
   </si>
   <si>
     <t>quantity/bioreactor</t>
@@ -60,6 +83,9 @@
     <t>DS118B20</t>
   </si>
   <si>
+    <t>resistor for thermometer</t>
+  </si>
+  <si>
     <t>NodeMcu</t>
   </si>
   <si>
@@ -99,6 +125,15 @@
     <t>https://www.aliexpress.com/item/4000602374795.html?spm=a2g0o.productlist.0.0.48a451feljxg72&amp;algo_pvid=a3f5eb45-994c-4b91-96b0-4e8b08249747&amp;algo_expid=a3f5eb45-994c-4b91-96b0-4e8b08249747-13&amp;btsid=0b0a556b16223844368121961eff04&amp;ws_ab_test=searchweb0_0,searchweb201602_,searchweb201603_</t>
   </si>
   <si>
+    <t>6 channel relay module</t>
+  </si>
+  <si>
+    <t>12v 6 channel version</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/32649659086.html?spm=a2g0o.productlist.0.0.20ff4c3dl3x5M6&amp;algo_pvid=e2862fbf-20bd-4263-b086-0cd5be82937c&amp;algo_exp_id=e2862fbf-20bd-4263-b086-0cd5be82937c-0</t>
+  </si>
+  <si>
     <t>16 channel Relay Module</t>
   </si>
   <si>
@@ -169,6 +204,39 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/32991622456.html?spm=a2g0o.placeorder.0.0.64f4321emhDq1a&amp;mp=1</t>
+  </si>
+  <si>
+    <t>12v power supply</t>
+  </si>
+  <si>
+    <t>12V &gt;2A</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/33042313383.html?spm=a2g0o.productlist.0.0.182c3693V5Mzkz&amp;algo_pvid=7bcd9753-96a9-4143-8ceb-b0960506244d&amp;algo_exp_id=7bcd9753-96a9-4143-8ceb-b0960506244d-0</t>
+  </si>
+  <si>
+    <t>5V power supplly</t>
+  </si>
+  <si>
+    <t>5v &gt;2A</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005001507883626.html?spm=a2g0o.productlist.0.0.4c09502f8yfbVw&amp;algo_pvid=813e35e5-f48c-4b52-ab68-c996c85223e3&amp;algo_exp_id=813e35e5-f48c-4b52-ab68-c996c85223e3-8</t>
+  </si>
+  <si>
+    <t>tubing</t>
+  </si>
+  <si>
+    <t>5mmID x 7mm OD</t>
+  </si>
+  <si>
+    <t>Fertilizer</t>
+  </si>
+  <si>
+    <t>with cobalt</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Indo-Cal-Mag-Supplement-Minerals-Magnesium/dp/B08FMCVPB2/ref=sr_1_24_sspa?dchild=1&amp;keywords=indo%2Bfertilizer&amp;qid=1627828113&amp;sr=8-24-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExM0lXVVU4RzBMTU1NJmVuY3J5cHRlZElkPUEwNzA4MzQ5MUVRU0E4NVo5Wk42TyZlbmNyeXB0ZWRBZElkPUEwNTMzNTMyMjBSSElUWlFDTzIwNSZ3aWRnZXROYW1lPXNwX210ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1</t>
   </si>
 </sst>
 </file>
@@ -178,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -194,21 +262,30 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
+    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,18 +294,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -241,7 +338,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -250,23 +347,29 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,15 +606,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <f>SUM(E6:E1048584)</f>
-        <v>907.23</v>
+        <f>SUM(E6:E1048586)</f>
+        <v>956.63</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3">
-        <f>sum(A6:A34)</f>
-        <v>253.368</v>
+        <f>sum(A6:A36)</f>
+        <v>219.748</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -551,7 +654,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="4">
-        <f t="shared" ref="A6:A30" si="1">if(B6,H6,0)</f>
+        <f t="shared" ref="A6:A9" si="1">if(B6,H6,0)</f>
         <v>0</v>
       </c>
       <c r="B6" s="4" t="b">
@@ -570,7 +673,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:H30" si="2">E6/F6*G6</f>
+        <f t="shared" ref="H6:H9" si="2">E6/F6*G6</f>
         <v>20</v>
       </c>
     </row>
@@ -659,140 +762,123 @@
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A10" s="4"/>
       <c r="B10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
+      <c r="A11" s="4">
+        <f t="shared" ref="A11:A36" si="3">if(B11,H11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1">
         <v>6.0</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>1.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="8">
-        <f t="shared" si="1"/>
-        <v>3.828</v>
-      </c>
-      <c r="B11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5">
-        <v>38.28</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10.0</v>
       </c>
       <c r="G11" s="4">
         <v>1.0</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H11:H36" si="4">E11/F11*G11</f>
+        <v>6</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
+      <c r="A12" s="8">
+        <f t="shared" si="3"/>
         <v>3.828</v>
       </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="b">
-        <v>0</v>
+      <c r="B12" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="5">
-        <v>327.74</v>
+        <v>38.28</v>
       </c>
       <c r="F12" s="7">
-        <v>100.0</v>
+        <v>10.0</v>
       </c>
       <c r="G12" s="4">
         <v>1.0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2774</v>
+        <f t="shared" si="4"/>
+        <v>3.828</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="b">
+      <c r="B13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="5">
+        <v>327.74</v>
+      </c>
+      <c r="F13" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2774</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
+      <c r="A14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8">
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="8">
         <v>54.99</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>2.0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>4.0</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="2"/>
+      <c r="H14" s="1">
+        <f t="shared" si="4"/>
         <v>109.98</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="8">
-        <f t="shared" si="1"/>
-        <v>78.68</v>
-      </c>
-      <c r="B14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="10">
-        <v>78.68</v>
-      </c>
-      <c r="F14" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="G14" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="2"/>
-        <v>78.68</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>21</v>
@@ -800,213 +886,216 @@
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="8">
-        <f t="shared" si="1"/>
-        <v>6.84</v>
+        <f t="shared" si="3"/>
+        <v>39.34</v>
       </c>
       <c r="B15" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="8">
+        <v>78.68</v>
+      </c>
+      <c r="F15" s="7">
+        <v>4.0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>39.34</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="13">
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
+      <c r="A16" s="8">
+        <f t="shared" si="3"/>
+        <v>6.84</v>
+      </c>
+      <c r="B16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="5">
         <v>1.71</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="12">
-        <v>4.0</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>6.84</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1">
-        <v>30.0</v>
       </c>
       <c r="F16" s="7">
         <v>1.0</v>
       </c>
-      <c r="G16" s="12">
-        <v>1.0</v>
+      <c r="G16" s="4">
+        <v>4.0</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="4"/>
+        <v>6.84</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="b">
+      <c r="B17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
+      <c r="A18" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="1">
         <v>50.0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="2">
         <v>4.0</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G18" s="4">
         <v>3.0</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
+      <c r="H18" s="1">
+        <f t="shared" si="4"/>
         <v>37.5</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="8">
-        <f t="shared" si="1"/>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="A19" s="8">
+        <f t="shared" si="3"/>
         <v>16.32</v>
       </c>
-      <c r="B18" s="4" t="b">
+      <c r="B19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="13">
-        <v>16.32</v>
-      </c>
-      <c r="F18" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="G18" s="12">
-        <v>3.0</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="2"/>
-        <v>16.32</v>
-      </c>
-      <c r="J18" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="B19" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="5">
-        <v>6.26</v>
+        <v>16.32</v>
       </c>
       <c r="F19" s="7">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G19" s="4">
         <v>3.0</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
-        <v>18.78</v>
-      </c>
-      <c r="J19" s="4"/>
+        <f t="shared" si="4"/>
+        <v>16.32</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="8">
-        <f t="shared" si="1"/>
-        <v>23.36</v>
+      <c r="A20" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="E20" s="5">
-        <v>23.36</v>
+        <v>6.26</v>
       </c>
       <c r="F20" s="7">
         <v>1.0</v>
       </c>
       <c r="G20" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
-        <v>23.36</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>29</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>18.78</v>
+      </c>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="8">
-        <f t="shared" si="1"/>
-        <v>8.495</v>
+        <f t="shared" si="3"/>
+        <v>4.47</v>
       </c>
       <c r="B21" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E21" s="5">
-        <v>16.99</v>
+        <v>4.47</v>
       </c>
       <c r="F21" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G21" s="4">
         <v>1.0</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
-        <v>8.495</v>
+        <f t="shared" si="4"/>
+        <v>4.47</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="8">
-        <f t="shared" si="1"/>
-        <v>2.12</v>
+      <c r="A22" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B22" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="E22" s="5">
-        <v>2.12</v>
+        <v>23.36</v>
       </c>
       <c r="F22" s="7">
         <v>1.0</v>
@@ -1015,79 +1104,85 @@
         <v>1.0</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
-        <v>2.12</v>
+        <f t="shared" si="4"/>
+        <v>23.36</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>8.495</v>
       </c>
       <c r="B23" s="4" t="b">
         <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="5">
-        <v>10.0</v>
+        <v>16.99</v>
       </c>
       <c r="F23" s="7">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" s="4">
         <v>1.0</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>8.495</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="A24" s="8">
+        <f t="shared" si="3"/>
+        <v>2.12</v>
       </c>
       <c r="B24" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="5">
-        <v>72.0</v>
+        <v>2.12</v>
       </c>
       <c r="F24" s="7">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" s="4">
         <v>1.0</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2.12</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B25" s="4" t="b">
         <v>0</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="5">
-        <v>60.0</v>
+        <v>10.0</v>
       </c>
       <c r="F25" s="7">
         <v>1.0</v>
@@ -1096,64 +1191,61 @@
         <v>1.0</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>39</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="8">
-        <f t="shared" si="1"/>
-        <v>37.38</v>
+      <c r="A26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B26" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E26" s="5">
-        <v>18.69</v>
+        <v>72.0</v>
       </c>
       <c r="F26" s="7">
+        <v>12.0</v>
+      </c>
+      <c r="G26" s="4">
         <v>1.0</v>
       </c>
-      <c r="G26" s="4">
-        <v>2.0</v>
-      </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>37.38</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>41</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="8">
-        <f t="shared" si="1"/>
-        <v>23.22</v>
+      <c r="A27" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="B27" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E27" s="13">
-        <v>11.61</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="F27" s="7">
         <v>1.0</v>
       </c>
       <c r="G27" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>23.22</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>43</v>
@@ -1161,8 +1253,8 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="8">
-        <f t="shared" si="1"/>
-        <v>11.515</v>
+        <f t="shared" si="3"/>
+        <v>37.38</v>
       </c>
       <c r="B28" s="4" t="b">
         <v>1</v>
@@ -1170,18 +1262,18 @@
       <c r="C28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="13">
-        <v>23.03</v>
-      </c>
-      <c r="F28" s="11">
+      <c r="E28" s="5">
+        <v>18.69</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G28" s="4">
         <v>2.0</v>
       </c>
-      <c r="G28" s="4">
-        <v>1.0</v>
-      </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>11.515</v>
+        <f t="shared" si="4"/>
+        <v>37.38</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>45</v>
@@ -1189,8 +1281,8 @@
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="8">
-        <f t="shared" si="1"/>
-        <v>9.28</v>
+        <f t="shared" si="3"/>
+        <v>23.22</v>
       </c>
       <c r="B29" s="4" t="b">
         <v>1</v>
@@ -1198,84 +1290,233 @@
       <c r="C29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="13">
-        <v>9.28</v>
-      </c>
-      <c r="F29" s="11">
-        <v>2.0</v>
+      <c r="E29" s="5">
+        <v>11.61</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1.0</v>
       </c>
       <c r="G29" s="4">
         <v>2.0</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
-        <v>9.28</v>
+        <f t="shared" si="4"/>
+        <v>23.22</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="8">
-        <f t="shared" si="1"/>
-        <v>10.32</v>
+        <f t="shared" si="3"/>
+        <v>11.515</v>
       </c>
       <c r="B30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="5">
+        <v>23.03</v>
+      </c>
+      <c r="F30" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="4"/>
+        <v>11.515</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E30" s="13">
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="8">
+        <f t="shared" si="3"/>
+        <v>9.28</v>
+      </c>
+      <c r="B31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="5">
+        <v>9.28</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2.0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="4"/>
+        <v>9.28</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
+      <c r="A32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="B32" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="5">
         <v>5.16</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F32" s="7">
         <v>1.0</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G32" s="4">
         <v>2.0</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="2"/>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
         <v>10.32</v>
       </c>
-      <c r="J30" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" customHeight="1">
-      <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" customHeight="1">
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="H32" s="1"/>
+      <c r="J32" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="H33" s="1"/>
+      <c r="A33" s="8">
+        <f t="shared" si="3"/>
+        <v>10.59</v>
+      </c>
+      <c r="B33" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="5">
+        <v>10.59</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="4"/>
+        <v>10.59</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="A34" s="8">
+        <f t="shared" si="3"/>
+        <v>1.36</v>
+      </c>
+      <c r="B34" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1.36</v>
+      </c>
+      <c r="F34" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="4"/>
+        <v>1.36</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="A35" s="8">
+        <f t="shared" si="3"/>
+        <v>13.99</v>
+      </c>
+      <c r="B35" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="13">
+        <v>13.99</v>
+      </c>
+      <c r="F35" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="G35" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="4"/>
+        <v>13.99</v>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="8">
+        <f t="shared" si="3"/>
+        <v>18.99</v>
+      </c>
+      <c r="B36" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="13">
+        <v>18.99</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="4"/>
+        <v>18.99</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="E38" s="1"/>
@@ -5161,26 +5402,39 @@
       <c r="E1008" s="1"/>
       <c r="F1008" s="2"/>
     </row>
+    <row r="1009" ht="14.25" customHeight="1">
+      <c r="E1009" s="1"/>
+      <c r="F1009" s="2"/>
+    </row>
+    <row r="1010" ht="14.25" customHeight="1">
+      <c r="E1010" s="1"/>
+      <c r="F1010" s="2"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J7"/>
-    <hyperlink r:id="rId2" ref="J10"/>
-    <hyperlink r:id="rId3" ref="J13"/>
+    <hyperlink r:id="rId2" ref="J7"/>
+    <hyperlink r:id="rId3" ref="J11"/>
     <hyperlink r:id="rId4" ref="J14"/>
     <hyperlink r:id="rId5" ref="J15"/>
-    <hyperlink r:id="rId6" ref="J18"/>
-    <hyperlink r:id="rId7" ref="J20"/>
-    <hyperlink r:id="rId8" ref="J22"/>
-    <hyperlink r:id="rId9" ref="J25"/>
-    <hyperlink r:id="rId10" location="store=184" ref="J26"/>
+    <hyperlink r:id="rId6" ref="J16"/>
+    <hyperlink r:id="rId7" ref="J19"/>
+    <hyperlink r:id="rId8" ref="J21"/>
+    <hyperlink r:id="rId9" ref="J22"/>
+    <hyperlink r:id="rId10" ref="J24"/>
     <hyperlink r:id="rId11" ref="J27"/>
-    <hyperlink r:id="rId12" ref="J28"/>
+    <hyperlink r:id="rId12" location="store=184" ref="J28"/>
     <hyperlink r:id="rId13" ref="J29"/>
     <hyperlink r:id="rId14" ref="J30"/>
+    <hyperlink r:id="rId15" ref="J31"/>
+    <hyperlink r:id="rId16" ref="J32"/>
+    <hyperlink r:id="rId17" ref="J33"/>
+    <hyperlink r:id="rId18" ref="J34"/>
+    <hyperlink r:id="rId19" ref="J36"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/Hardware/CostLog.xlsx
+++ b/Hardware/CostLog.xlsx
@@ -32,7 +32,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjLe1lM0c5jG5ZOi17z6k7+eCmSdw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgKrsR8KL3p3RBKJTcVo7JuwCy4Vw=="/>
     </ext>
   </extLst>
 </comments>
@@ -262,19 +262,19 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font/>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="&quot;Open Sans&quot;"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -325,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -338,10 +338,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -350,19 +353,13 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -614,7 +611,7 @@
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3">
         <f>sum(A6:A36)</f>
-        <v>219.748</v>
+        <v>188.233</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -678,12 +675,12 @@
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="4">
         <f t="shared" si="1"/>
-        <v>9.52</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>10</v>
@@ -701,7 +698,7 @@
         <f t="shared" si="2"/>
         <v>9.52</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -734,7 +731,7 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
         <v>2.49</v>
       </c>
@@ -799,12 +796,12 @@
         <f t="shared" ref="H11:H36" si="4">E11/F11*G11</f>
         <v>6</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <f t="shared" si="3"/>
         <v>3.828</v>
       </c>
@@ -867,7 +864,7 @@
       <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="9">
         <v>54.99</v>
       </c>
       <c r="F14" s="7">
@@ -880,12 +877,12 @@
         <f t="shared" si="4"/>
         <v>109.98</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <f t="shared" si="3"/>
         <v>39.34</v>
       </c>
@@ -898,7 +895,7 @@
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="9">
         <v>78.68</v>
       </c>
       <c r="F15" s="7">
@@ -911,14 +908,14 @@
         <f t="shared" si="4"/>
         <v>39.34</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <f t="shared" si="3"/>
-        <v>6.84</v>
+        <v>3.42</v>
       </c>
       <c r="B16" s="4" t="b">
         <v>1</v>
@@ -932,14 +929,14 @@
       <c r="F16" s="7">
         <v>1.0</v>
       </c>
-      <c r="G16" s="4">
-        <v>4.0</v>
+      <c r="G16" s="10">
+        <v>2.0</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="4"/>
-        <v>6.84</v>
-      </c>
-      <c r="J16" s="9" t="s">
+        <v>3.42</v>
+      </c>
+      <c r="J16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -994,9 +991,9 @@
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="9">
         <f t="shared" si="3"/>
-        <v>16.32</v>
+        <v>10.88</v>
       </c>
       <c r="B19" s="4" t="b">
         <v>1</v>
@@ -1008,17 +1005,17 @@
       <c r="E19" s="5">
         <v>16.32</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="11">
         <v>3.0</v>
       </c>
-      <c r="G19" s="4">
-        <v>3.0</v>
+      <c r="G19" s="10">
+        <v>2.0</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="4"/>
-        <v>16.32</v>
-      </c>
-      <c r="J19" s="9" t="s">
+        <v>10.88</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1050,7 +1047,7 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="9">
         <f t="shared" si="3"/>
         <v>4.47</v>
       </c>
@@ -1076,7 +1073,7 @@
         <f t="shared" si="4"/>
         <v>4.47</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1107,17 +1104,17 @@
         <f t="shared" si="4"/>
         <v>23.36</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="4">
         <f t="shared" si="3"/>
-        <v>8.495</v>
+        <v>0</v>
       </c>
       <c r="B23" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>34</v>
@@ -1140,17 +1137,17 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="9">
         <f t="shared" si="3"/>
         <v>2.12</v>
       </c>
       <c r="B24" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="5">
@@ -1166,7 +1163,7 @@
         <f t="shared" si="4"/>
         <v>2.12</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1247,12 +1244,12 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="8">
+      <c r="A28" s="9">
         <f t="shared" si="3"/>
         <v>37.38</v>
       </c>
@@ -1275,12 +1272,12 @@
         <f t="shared" si="4"/>
         <v>37.38</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="8">
+      <c r="A29" s="9">
         <f t="shared" si="3"/>
         <v>23.22</v>
       </c>
@@ -1303,19 +1300,19 @@
         <f t="shared" si="4"/>
         <v>23.22</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="8">
+      <c r="A30" s="9">
         <f t="shared" si="3"/>
         <v>11.515</v>
       </c>
       <c r="B30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="5">
@@ -1331,14 +1328,14 @@
         <f t="shared" si="4"/>
         <v>11.515</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="8">
+      <c r="A31" s="9">
         <f t="shared" si="3"/>
-        <v>9.28</v>
+        <v>4.64</v>
       </c>
       <c r="B31" s="4" t="b">
         <v>1</v>
@@ -1355,14 +1352,14 @@
       <c r="F31" s="7">
         <v>2.0</v>
       </c>
-      <c r="G31" s="4">
-        <v>2.0</v>
+      <c r="G31" s="10">
+        <v>1.0</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="4"/>
-        <v>9.28</v>
-      </c>
-      <c r="J31" s="9" t="s">
+        <v>4.64</v>
+      </c>
+      <c r="J31" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1390,12 +1387,12 @@
         <f t="shared" si="4"/>
         <v>10.32</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="8">
+      <c r="A33" s="9">
         <f t="shared" si="3"/>
         <v>10.59</v>
       </c>
@@ -1421,12 +1418,12 @@
         <f t="shared" si="4"/>
         <v>10.59</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="8">
+      <c r="A34" s="9">
         <f t="shared" si="3"/>
         <v>1.36</v>
       </c>
@@ -1452,12 +1449,12 @@
         <f t="shared" si="4"/>
         <v>1.36</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="8">
+      <c r="A35" s="9">
         <f t="shared" si="3"/>
         <v>13.99</v>
       </c>
@@ -1467,13 +1464,13 @@
       <c r="C35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="5">
         <v>13.99</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="7">
         <v>5.0</v>
       </c>
       <c r="G35" s="4">
@@ -1485,23 +1482,23 @@
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="8">
+      <c r="A36" s="9">
         <f t="shared" si="3"/>
         <v>18.99</v>
       </c>
       <c r="B36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="5">
         <v>18.99</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="7">
         <v>1.0</v>
       </c>
       <c r="G36" s="4">
@@ -1511,7 +1508,7 @@
         <f t="shared" si="4"/>
         <v>18.99</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J36" s="15" t="s">
         <v>65</v>
       </c>
     </row>

--- a/Hardware/CostLog.xlsx
+++ b/Hardware/CostLog.xlsx
@@ -246,7 +246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -264,11 +264,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -325,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -350,22 +345,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -611,7 +600,7 @@
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3">
         <f>sum(A6:A36)</f>
-        <v>188.233</v>
+        <v>183.008</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -731,12 +720,12 @@
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="4">
         <f t="shared" si="1"/>
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="B9" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>12</v>
@@ -929,7 +918,7 @@
       <c r="F16" s="7">
         <v>1.0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <v>2.0</v>
       </c>
       <c r="H16" s="1">
@@ -1005,10 +994,10 @@
       <c r="E19" s="5">
         <v>16.32</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>3.0</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <v>2.0</v>
       </c>
       <c r="H19" s="1">
@@ -1047,12 +1036,12 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="4">
         <f t="shared" si="3"/>
-        <v>4.47</v>
+        <v>0</v>
       </c>
       <c r="B21" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>28</v>
@@ -1109,12 +1098,12 @@
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8.495</v>
       </c>
       <c r="B23" s="4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>34</v>
@@ -1137,17 +1126,17 @@
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <f t="shared" si="3"/>
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="B24" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E24" s="5">
@@ -1312,7 +1301,7 @@
       <c r="B30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E30" s="5">
@@ -1333,12 +1322,12 @@
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="4">
         <f t="shared" si="3"/>
-        <v>4.64</v>
+        <v>0</v>
       </c>
       <c r="B31" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>50</v>
@@ -1352,7 +1341,7 @@
       <c r="F31" s="7">
         <v>2.0</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="4">
         <v>1.0</v>
       </c>
       <c r="H31" s="1">
@@ -1489,10 +1478,10 @@
       <c r="B36" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="5">
@@ -1508,7 +1497,7 @@
         <f t="shared" si="4"/>
         <v>18.99</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" s="13" t="s">
         <v>65</v>
       </c>
     </row>
